--- a/server/LISTAS/mi/PORTACANDADOS.xlsx
+++ b/server/LISTAS/mi/PORTACANDADOS.xlsx
@@ -728,7 +728,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="14" t="n">
-        <v>45289</v>
+        <v>45306</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>

--- a/server/LISTAS/mi/PORTACANDADOS.xlsx
+++ b/server/LISTAS/mi/PORTACANDADOS.xlsx
@@ -728,7 +728,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="14" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>

--- a/server/LISTAS/mi/PORTACANDADOS.xlsx
+++ b/server/LISTAS/mi/PORTACANDADOS.xlsx
@@ -728,7 +728,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="14" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C32" s="17" t="n"/>
       <c r="D32" s="11" t="n">
-        <v>111.234</v>
+        <v>219.124</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="1" s="15">
@@ -819,7 +819,7 @@
       </c>
       <c r="C33" s="17" t="n"/>
       <c r="D33" s="10" t="n">
-        <v>159.163</v>
+        <v>313.543</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="1" s="15">
@@ -835,7 +835,7 @@
       </c>
       <c r="C34" s="17" t="n"/>
       <c r="D34" s="11" t="n">
-        <v>211.913</v>
+        <v>417.457</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="1" s="15">
@@ -851,7 +851,7 @@
       </c>
       <c r="C35" s="17" t="n"/>
       <c r="D35" s="10" t="n">
-        <v>218.175</v>
+        <v>429.794</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="1" s="15">
@@ -867,7 +867,7 @@
       </c>
       <c r="C36" s="17" t="n"/>
       <c r="D36" s="11" t="n">
-        <v>285.93</v>
+        <v>563.266</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="1" s="15">
@@ -883,7 +883,7 @@
       </c>
       <c r="C37" s="17" t="n"/>
       <c r="D37" s="10" t="n">
-        <v>326.947</v>
+        <v>644.069</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="1" s="15">
@@ -899,7 +899,7 @@
       </c>
       <c r="C38" s="17" t="n"/>
       <c r="D38" s="11" t="n">
-        <v>391.516</v>
+        <v>771.2670000000001</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="1" s="15">
@@ -915,7 +915,7 @@
       </c>
       <c r="C39" s="17" t="n"/>
       <c r="D39" s="11" t="n">
-        <v>466.211</v>
+        <v>918.41</v>
       </c>
     </row>
     <row r="47">
@@ -927,18 +927,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/PORTACANDADOS.xlsx
+++ b/server/LISTAS/mi/PORTACANDADOS.xlsx
@@ -728,7 +728,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="14" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>

--- a/server/LISTAS/mi/PORTACANDADOS.xlsx
+++ b/server/LISTAS/mi/PORTACANDADOS.xlsx
@@ -728,7 +728,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="14" t="n">
-        <v>45310</v>
+        <v>45311</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C32" s="17" t="n"/>
       <c r="D32" s="11" t="n">
-        <v>219.124</v>
+        <v>111.234</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="1" s="15">
@@ -819,7 +819,7 @@
       </c>
       <c r="C33" s="17" t="n"/>
       <c r="D33" s="10" t="n">
-        <v>313.543</v>
+        <v>159.163</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="1" s="15">
@@ -835,7 +835,7 @@
       </c>
       <c r="C34" s="17" t="n"/>
       <c r="D34" s="11" t="n">
-        <v>417.457</v>
+        <v>211.913</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="1" s="15">
@@ -851,7 +851,7 @@
       </c>
       <c r="C35" s="17" t="n"/>
       <c r="D35" s="10" t="n">
-        <v>429.794</v>
+        <v>218.175</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="1" s="15">
@@ -867,7 +867,7 @@
       </c>
       <c r="C36" s="17" t="n"/>
       <c r="D36" s="11" t="n">
-        <v>563.266</v>
+        <v>285.93</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="1" s="15">
@@ -883,7 +883,7 @@
       </c>
       <c r="C37" s="17" t="n"/>
       <c r="D37" s="10" t="n">
-        <v>644.069</v>
+        <v>326.947</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="1" s="15">
@@ -899,7 +899,7 @@
       </c>
       <c r="C38" s="17" t="n"/>
       <c r="D38" s="11" t="n">
-        <v>771.2670000000001</v>
+        <v>391.516</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="1" s="15">
@@ -915,7 +915,7 @@
       </c>
       <c r="C39" s="17" t="n"/>
       <c r="D39" s="11" t="n">
-        <v>918.41</v>
+        <v>466.211</v>
       </c>
     </row>
     <row r="47">
@@ -927,18 +927,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/PORTACANDADOS.xlsx
+++ b/server/LISTAS/mi/PORTACANDADOS.xlsx
@@ -728,7 +728,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="14" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -927,18 +927,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/PORTACANDADOS.xlsx
+++ b/server/LISTAS/mi/PORTACANDADOS.xlsx
@@ -728,7 +728,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="14" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -927,18 +927,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/PORTACANDADOS.xlsx
+++ b/server/LISTAS/mi/PORTACANDADOS.xlsx
@@ -728,7 +728,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="14" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -927,18 +927,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/PORTACANDADOS.xlsx
+++ b/server/LISTAS/mi/PORTACANDADOS.xlsx
@@ -728,7 +728,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="14" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C32" s="17" t="n"/>
       <c r="D32" s="11" t="n">
-        <v>111.234</v>
+        <v>219.124</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="1" s="15">
@@ -819,7 +819,7 @@
       </c>
       <c r="C33" s="17" t="n"/>
       <c r="D33" s="10" t="n">
-        <v>159.163</v>
+        <v>313.543</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="1" s="15">
@@ -835,7 +835,7 @@
       </c>
       <c r="C34" s="17" t="n"/>
       <c r="D34" s="11" t="n">
-        <v>211.913</v>
+        <v>417.457</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="1" s="15">
@@ -851,7 +851,7 @@
       </c>
       <c r="C35" s="17" t="n"/>
       <c r="D35" s="10" t="n">
-        <v>218.175</v>
+        <v>429.794</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="1" s="15">
@@ -867,7 +867,7 @@
       </c>
       <c r="C36" s="17" t="n"/>
       <c r="D36" s="11" t="n">
-        <v>285.93</v>
+        <v>563.266</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="1" s="15">
@@ -883,7 +883,7 @@
       </c>
       <c r="C37" s="17" t="n"/>
       <c r="D37" s="10" t="n">
-        <v>326.947</v>
+        <v>644.069</v>
       </c>
     </row>
     <row r="38" ht="18" customHeight="1" s="15">
@@ -899,7 +899,7 @@
       </c>
       <c r="C38" s="17" t="n"/>
       <c r="D38" s="11" t="n">
-        <v>391.516</v>
+        <v>771.2670000000001</v>
       </c>
     </row>
     <row r="39" ht="18" customHeight="1" s="15">
@@ -915,7 +915,7 @@
       </c>
       <c r="C39" s="17" t="n"/>
       <c r="D39" s="11" t="n">
-        <v>466.211</v>
+        <v>918.41</v>
       </c>
     </row>
     <row r="47">
@@ -927,18 +927,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
